--- a/tables/ExpertNet.xlsx
+++ b/tables/ExpertNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF39D3D-1B2A-4F0F-835D-B397A4FAEFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC462B-AF3F-4341-9CBC-10045060B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="29580" yWindow="-18570" windowWidth="21600" windowHeight="11385" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">Power Apps/Canvas App </t>
   </si>
   <si>
-    <t>Karrin.Alstad@ wildlife.ca.gov</t>
-  </si>
-  <si>
     <t>Karrin Alstad (IEP) / Tuongvan Nguyen (CDFW)</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>(pending Trinh's approval)</t>
+  </si>
+  <si>
+    <t>Karrin.Alstad@wildlife.ca.gov</t>
   </si>
 </sst>
 </file>
@@ -439,12 +439,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,24 +469,24 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
